--- a/docs/outcomeworksheet.xlsx
+++ b/docs/outcomeworksheet.xlsx
@@ -2,19 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4619716-F123-47DA-9BDC-02CA3A21368F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68CD43-DBAF-4840-AFF0-C81CA5376B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6195" yWindow="1815" windowWidth="21600" windowHeight="12270" activeTab="1" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="343">
   <si>
     <t>F/OT</t>
   </si>
@@ -877,6 +879,195 @@
   </si>
   <si>
     <t>dog</t>
+  </si>
+  <si>
+    <t>Cincinnati BengalsBengals · 20</t>
+  </si>
+  <si>
+    <t>Baltimore RavensRavens · 34 </t>
+  </si>
+  <si>
+    <t>Arizona CardinalsCardinals · 16</t>
+  </si>
+  <si>
+    <t>o48</t>
+  </si>
+  <si>
+    <t>Houston TexansTexans · 21 </t>
+  </si>
+  <si>
+    <t>U: -11</t>
+  </si>
+  <si>
+    <t>Dallas CowboysCowboys · 33 </t>
+  </si>
+  <si>
+    <t>Carolina PanthersPanthers · 10</t>
+  </si>
+  <si>
+    <t>o43.5</t>
+  </si>
+  <si>
+    <t>U: -0.5</t>
+  </si>
+  <si>
+    <t>Pittsburgh SteelersSteelers · 10</t>
+  </si>
+  <si>
+    <t>o34.5</t>
+  </si>
+  <si>
+    <t>Cleveland BrownsBrowns · 13 </t>
+  </si>
+  <si>
+    <t>Las Vegas RaidersRaiders · 13</t>
+  </si>
+  <si>
+    <t>C: +7</t>
+  </si>
+  <si>
+    <t>Miami DolphinsDolphins · 20 </t>
+  </si>
+  <si>
+    <t>Chicago BearsBears · 26</t>
+  </si>
+  <si>
+    <t>Detroit LionsLions · 31 </t>
+  </si>
+  <si>
+    <t>Los Angeles ChargersChargers · 20</t>
+  </si>
+  <si>
+    <t>Green Bay PackersPackers · 23 </t>
+  </si>
+  <si>
+    <t>C: +6</t>
+  </si>
+  <si>
+    <t>Tennessee TitansTitans · 14</t>
+  </si>
+  <si>
+    <t>o40</t>
+  </si>
+  <si>
+    <t>O: +8</t>
+  </si>
+  <si>
+    <t>Jacksonville JaguarsJaguars · 34 </t>
+  </si>
+  <si>
+    <t>New York GiantsGiants · 31 </t>
+  </si>
+  <si>
+    <t>o38.5</t>
+  </si>
+  <si>
+    <t>Washington CommandersCommanders · 19</t>
+  </si>
+  <si>
+    <t>O: +11.5</t>
+  </si>
+  <si>
+    <t>Tampa Bay BuccaneersBuccaneers · 14</t>
+  </si>
+  <si>
+    <t>San Francisco 49ers49ers · 27 </t>
+  </si>
+  <si>
+    <t>Seattle SeahawksSeahawks · 16</t>
+  </si>
+  <si>
+    <t>C: +1.5</t>
+  </si>
+  <si>
+    <t>Los Angeles RamsRams · 17 </t>
+  </si>
+  <si>
+    <t>U: -12.5</t>
+  </si>
+  <si>
+    <t>New York JetsJets · 6</t>
+  </si>
+  <si>
+    <t>Buffalo BillsBills · 32 </t>
+  </si>
+  <si>
+    <t>Minnesota VikingsVikings · 20</t>
+  </si>
+  <si>
+    <t>o42.5</t>
+  </si>
+  <si>
+    <t>Denver BroncosBroncos · 21 </t>
+  </si>
+  <si>
+    <t>NFL</t>
+  </si>
+  <si>
+    <t>Lions</t>
+  </si>
+  <si>
+    <t>Bears</t>
+  </si>
+  <si>
+    <t>Chargers</t>
+  </si>
+  <si>
+    <t>Packers</t>
+  </si>
+  <si>
+    <t>Jaguars</t>
+  </si>
+  <si>
+    <t>Titans</t>
+  </si>
+  <si>
+    <t>Cowboys</t>
+  </si>
+  <si>
+    <t>Panthers</t>
+  </si>
+  <si>
+    <t>Browns</t>
+  </si>
+  <si>
+    <t>Steelers</t>
+  </si>
+  <si>
+    <t>Commanders</t>
+  </si>
+  <si>
+    <t>Giants</t>
+  </si>
+  <si>
+    <t>Texans</t>
+  </si>
+  <si>
+    <t>Cardinals</t>
+  </si>
+  <si>
+    <t>Seahawks</t>
+  </si>
+  <si>
+    <t>Rams</t>
+  </si>
+  <si>
+    <t>Bills</t>
+  </si>
+  <si>
+    <t>Jets</t>
+  </si>
+  <si>
+    <t>Broncos</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Chiefs</t>
+  </si>
+  <si>
+    <t>Eagles</t>
   </si>
 </sst>
 </file>
@@ -1012,24 +1203,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1344,11 +1537,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8609491-13BE-4A11-94B0-5BA188870BFE}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B2:L272"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A262" activePane="bottomLeft"/>
-      <selection activeCell="B7" sqref="B7:B271"/>
+      <pane ySplit="3600" topLeftCell="A262"/>
+      <selection activeCell="B3" sqref="B3:B272"/>
       <selection pane="bottomLeft" activeCell="E281" sqref="E281"/>
     </sheetView>
   </sheetViews>
@@ -8104,10 +8298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DECEC-AA2F-4D85-B3B6-4794695AA9AA}">
-  <dimension ref="C1:O267"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="C1:T267"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E41"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8118,13 +8313,13 @@
     <col min="14" max="14" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="6:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F3" s="1"/>
       <c r="I3" t="s">
         <v>13</v>
@@ -8135,8 +8330,11 @@
       <c r="O3" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F4" s="1"/>
       <c r="I4" t="s">
         <v>68</v>
@@ -8147,8 +8345,11 @@
       <c r="O4" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="5" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F5" s="1"/>
       <c r="I5" t="s">
         <v>129</v>
@@ -8159,8 +8360,11 @@
       <c r="O5" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="6" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="I6" t="s">
         <v>218</v>
@@ -8171,8 +8375,11 @@
       <c r="O6" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
       <c r="I7" t="s">
         <v>143</v>
@@ -8183,8 +8390,11 @@
       <c r="O7" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="8" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F8" s="1"/>
       <c r="I8" t="s">
         <v>60</v>
@@ -8195,8 +8405,11 @@
       <c r="O8" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="9" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F9" s="1"/>
       <c r="I9" t="s">
         <v>104</v>
@@ -8207,8 +8420,11 @@
       <c r="O9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F10" s="1"/>
       <c r="I10" t="s">
         <v>202</v>
@@ -8219,8 +8435,11 @@
       <c r="O10" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="11" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F11" s="1"/>
       <c r="I11" t="s">
         <v>198</v>
@@ -8231,8 +8450,11 @@
       <c r="O11" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="12" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F12" s="1"/>
       <c r="I12" t="s">
         <v>147</v>
@@ -8243,8 +8465,11 @@
       <c r="O12" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="13" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F13" s="1"/>
       <c r="I13" t="s">
         <v>140</v>
@@ -8255,8 +8480,11 @@
       <c r="O13" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F14" s="1"/>
       <c r="I14" t="s">
         <v>201</v>
@@ -8267,8 +8495,11 @@
       <c r="O14" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F15" s="1"/>
       <c r="I15" t="s">
         <v>170</v>
@@ -8279,8 +8510,11 @@
       <c r="O15" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="16" spans="6:15" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="16" spans="6:20" x14ac:dyDescent="0.25">
       <c r="F16" s="1"/>
       <c r="I16" t="s">
         <v>226</v>
@@ -8291,8 +8525,11 @@
       <c r="O16" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F17" s="1"/>
       <c r="I17" t="s">
         <v>168</v>
@@ -8303,8 +8540,11 @@
       <c r="O17" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="F18" s="1"/>
       <c r="I18" t="s">
         <v>121</v>
@@ -8315,10 +8555,11 @@
       <c r="O18" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="8"/>
+      <c r="T18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="E19" s="6"/>
       <c r="I19" t="s">
         <v>206</v>
@@ -8329,13 +8570,15 @@
       <c r="O19" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="20" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="D20" s="13" t="s">
+      <c r="T19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="10" t="s">
         <v>279</v>
       </c>
       <c r="I20" t="s">
@@ -8344,8 +8587,11 @@
       <c r="O20" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>271</v>
       </c>
@@ -8355,261 +8601,607 @@
       <c r="E21" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
       <c r="I21" t="s">
         <v>81</v>
       </c>
       <c r="O21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="15" t="s">
         <v>274</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>275</v>
       </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
       <c r="I22" t="s">
         <v>229</v>
       </c>
       <c r="O22" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="15" t="s">
         <v>276</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>277</v>
       </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
       <c r="I23" t="s">
         <v>30</v>
       </c>
       <c r="O23" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="15" t="s">
         <v>235</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>236</v>
       </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
       <c r="I24" t="s">
         <v>89</v>
       </c>
       <c r="O24" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="14" t="s">
         <v>237</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>238</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="15" t="s">
         <v>239</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>240</v>
       </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
       <c r="I26" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="15" t="s">
         <v>241</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>242</v>
       </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
       <c r="I27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="15" t="s">
         <v>243</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>244</v>
       </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
       <c r="I28" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="T28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="15" t="s">
         <v>245</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="T29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="14" t="s">
         <v>247</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>281</v>
+      </c>
+      <c r="T30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="15" t="s">
         <v>249</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>316</v>
+      </c>
+      <c r="T31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="15" t="s">
         <v>251</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>292</v>
+      </c>
+      <c r="T32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>286</v>
+      </c>
+      <c r="T33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="15" t="s">
         <v>255</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="T34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="15" t="s">
         <v>257</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>297</v>
+      </c>
+      <c r="T35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="15" t="s">
         <v>259</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="T36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D37" s="15" t="s">
         <v>261</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>284</v>
+      </c>
+      <c r="T37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="15" t="s">
         <v>263</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>304</v>
+      </c>
+      <c r="T38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="J39" t="s">
+        <v>313</v>
+      </c>
+      <c r="T39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="41" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="10" t="s">
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="T40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="7" t="s">
         <v>270</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>305</v>
+      </c>
+      <c r="T41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C42" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>310</v>
+      </c>
+      <c r="T42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C43" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="T43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C44" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="T44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C45" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="T45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C46" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="T46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C47" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="T47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C48" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="T48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C49" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="T49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C50" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="T50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C51" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="T51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C52" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="68" spans="9:9" x14ac:dyDescent="0.25">
@@ -9613,9 +10205,2758 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I4:I267">
-    <sortCondition ref="I3:I267"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:T51">
+    <sortCondition ref="T3:T51"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{996F8384-25AC-41DC-BE25-23E8E08E86DB}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="E4:M274"/>
+  <sheetViews>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="3600" topLeftCell="A22"/>
+      <selection activeCell="E5" sqref="E5:E53"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f>IF(F4="FINAL",IF(M5&gt;M6,F5,F6))</f>
+        <v>Baltimore RavensRavens · 34 </v>
+      </c>
+      <c r="F5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>7</v>
+      </c>
+      <c r="M5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E6" t="b">
+        <f t="shared" ref="E6:E69" si="0">IF(F5="FINAL",IF(M6&gt;M7,F6,F7))</f>
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G6">
+        <v>-3.5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>7</v>
+      </c>
+      <c r="M6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Houston TexansTexans · 21 </v>
+      </c>
+      <c r="F9" t="s">
+        <v>282</v>
+      </c>
+      <c r="G9" t="s">
+        <v>283</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10">
+        <v>-5.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>285</v>
+      </c>
+      <c r="I10">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Dallas CowboysCowboys · 33 </v>
+      </c>
+      <c r="F13" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13">
+        <v>-11.5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>16</v>
+      </c>
+      <c r="M13">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Cleveland BrownsBrowns · 13 </v>
+      </c>
+      <c r="F17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G17" t="s">
+        <v>291</v>
+      </c>
+      <c r="H17" t="s">
+        <v>182</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>7</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18" t="s">
+        <v>292</v>
+      </c>
+      <c r="G18">
+        <v>-2.5</v>
+      </c>
+      <c r="H18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Miami DolphinsDolphins · 20 </v>
+      </c>
+      <c r="F21" t="s">
+        <v>293</v>
+      </c>
+      <c r="G21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" t="s">
+        <v>294</v>
+      </c>
+      <c r="I21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>3</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G22">
+        <v>-14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>182</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Detroit LionsLions · 31 </v>
+      </c>
+      <c r="F25" t="s">
+        <v>296</v>
+      </c>
+      <c r="G25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25">
+        <v>7</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26">
+        <v>-7.5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>14</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>17</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Green Bay PackersPackers · 23 </v>
+      </c>
+      <c r="F29" t="s">
+        <v>298</v>
+      </c>
+      <c r="G29">
+        <v>-3</v>
+      </c>
+      <c r="H29" t="s">
+        <v>289</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>299</v>
+      </c>
+      <c r="G30" t="s">
+        <v>288</v>
+      </c>
+      <c r="H30" t="s">
+        <v>300</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>6</v>
+      </c>
+      <c r="L30">
+        <v>7</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Jacksonville JaguarsJaguars · 34 </v>
+      </c>
+      <c r="F33" t="s">
+        <v>301</v>
+      </c>
+      <c r="G33" t="s">
+        <v>302</v>
+      </c>
+      <c r="H33" t="s">
+        <v>303</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>7</v>
+      </c>
+      <c r="L33">
+        <v>7</v>
+      </c>
+      <c r="M33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34">
+        <v>-6.5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>41</v>
+      </c>
+      <c r="I34">
+        <v>7</v>
+      </c>
+      <c r="J34">
+        <v>6</v>
+      </c>
+      <c r="K34">
+        <v>14</v>
+      </c>
+      <c r="L34">
+        <v>7</v>
+      </c>
+      <c r="M34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>New York GiantsGiants · 31 </v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37">
+        <v>7</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>17</v>
+      </c>
+      <c r="M37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" t="s">
+        <v>307</v>
+      </c>
+      <c r="G38">
+        <v>-7.5</v>
+      </c>
+      <c r="H38" t="s">
+        <v>308</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>3</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>2</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>3</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>San Francisco 49ers49ers · 27 </v>
+      </c>
+      <c r="F41" t="s">
+        <v>309</v>
+      </c>
+      <c r="G41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" t="s">
+        <v>5</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>7</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>7</v>
+      </c>
+      <c r="M41">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>310</v>
+      </c>
+      <c r="G42">
+        <v>-13.5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>289</v>
+      </c>
+      <c r="I42">
+        <v>7</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>14</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>2</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Los Angeles RamsRams · 17 </v>
+      </c>
+      <c r="F45" t="s">
+        <v>311</v>
+      </c>
+      <c r="G45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" t="s">
+        <v>312</v>
+      </c>
+      <c r="I45">
+        <v>7</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>313</v>
+      </c>
+      <c r="G46">
+        <v>-2.5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>314</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>7</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>3</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Buffalo BillsBills · 32 </v>
+      </c>
+      <c r="F49" t="s">
+        <v>315</v>
+      </c>
+      <c r="G49" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" t="s">
+        <v>91</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50">
+        <v>-8.5</v>
+      </c>
+      <c r="H50" t="s">
+        <v>65</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>13</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E52" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Denver BroncosBroncos · 21 </v>
+      </c>
+      <c r="F53" t="s">
+        <v>317</v>
+      </c>
+      <c r="G53" t="s">
+        <v>318</v>
+      </c>
+      <c r="H53" t="s">
+        <v>312</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>7</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F54" t="s">
+        <v>319</v>
+      </c>
+      <c r="G54">
+        <v>-2.5</v>
+      </c>
+      <c r="H54" t="s">
+        <v>91</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>12</v>
+      </c>
+      <c r="M54">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E56" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E58" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E59" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E61" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E62" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E63" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.25">
+      <c r="E64" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E65" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E66" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E67" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E68" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E69" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E70" t="b">
+        <f t="shared" ref="E70:E133" si="1">IF(F69="FINAL",IF(M70&gt;M71,F70,F71))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E71" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E72" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E73" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E74" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E75" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E76" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E77" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E78" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E79" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E80" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E123" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E124" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E125" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E126" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E127" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E128" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E129" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E130" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E131" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E132" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E133" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E134" t="b">
+        <f t="shared" ref="E134:E197" si="2">IF(F133="FINAL",IF(M134&gt;M135,F134,F135))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E135" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E136" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E137" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E138" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E139" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E140" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E141" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E142" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E143" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E144" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E145" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E146" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E147" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E148" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E149" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E150" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E151" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E152" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E153" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E154" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E155" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E156" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E157" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E158" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E159" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E160" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E161" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E162" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E163" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E164" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E165" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E166" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E167" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E168" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E169" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E170" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E171" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E172" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E173" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E174" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E175" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E176" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E177" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E178" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E179" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E180" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E181" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E182" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E183" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E184" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E185" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E186" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E187" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E188" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E189" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E190" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E191" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E192" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E193" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E194" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E195" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E196" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E197" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E198" t="b">
+        <f t="shared" ref="E198:E261" si="3">IF(F197="FINAL",IF(M198&gt;M199,F198,F199))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E199" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E200" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E201" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E202" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E203" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E204" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E205" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E206" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E207" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E208" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E209" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E210" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E211" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E212" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E213" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E214" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E215" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E216" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E217" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E218" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E219" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E220" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E221" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E222" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E223" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E224" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E225" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E226" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E227" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E228" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E229" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E230" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E231" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E232" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E233" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E234" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E235" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E236" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E237" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E238" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E239" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E240" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E241" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E242" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E243" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E244" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E245" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E246" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E247" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E248" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E249" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E250" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E251" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E252" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E253" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E254" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E255" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E256" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E258" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E259" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E260" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E261" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E262" t="b">
+        <f t="shared" ref="E262:E274" si="4">IF(F261="FINAL",IF(M262&gt;M263,F262,F263))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E263" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E264" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E265" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E266" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E267" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E268" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E269" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E270" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E271" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E272" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E273" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E274" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FF10A-125A-4B34-B177-4D9AF18D6B6F}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="C4:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" t="s">
+        <v>329</v>
+      </c>
+      <c r="E8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E10" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E12" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D14" t="s">
+        <v>341</v>
+      </c>
+      <c r="E14" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/outcomeworksheet.xlsx
+++ b/docs/outcomeworksheet.xlsx
@@ -5,18 +5,19 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\asb\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C68CD43-DBAF-4840-AFF0-C81CA5376B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA11E2-12FE-49FB-9904-836EB4BBE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
+    <workbookView xWindow="14385" yWindow="420" windowWidth="21600" windowHeight="14595" activeTab="4" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="507">
   <si>
     <t>F/OT</t>
   </si>
@@ -1068,13 +1069,505 @@
   </si>
   <si>
     <t>Eagles</t>
+  </si>
+  <si>
+    <t>Khai Wu_Phil Caracappa</t>
+  </si>
+  <si>
+    <t>"MMA:Caracappa:Wu"</t>
+  </si>
+  <si>
+    <t>Bubba Jenkins_Chris Wade</t>
+  </si>
+  <si>
+    <t>"MMA:Jenkins:Wade"</t>
+  </si>
+  <si>
+    <t>Jesse Stirn_Josh Blyden</t>
+  </si>
+  <si>
+    <t>"MMA:Stirn:Blyden"</t>
+  </si>
+  <si>
+    <t>Gabriel Alves Braga_Jesus Pinedo</t>
+  </si>
+  <si>
+    <t>"MMA:Braga:Pinedo"</t>
+  </si>
+  <si>
+    <t>Derek Brunson_Ray Cooper III</t>
+  </si>
+  <si>
+    <t>"MMA:III:Brunson"</t>
+  </si>
+  <si>
+    <t>Denis Goltsov_Renan Ferreira</t>
+  </si>
+  <si>
+    <t>"MMA:Goltsov:Ferreira"</t>
+  </si>
+  <si>
+    <t>Magomed Magomedkerimov_Sadibou Sy</t>
+  </si>
+  <si>
+    <t>"MMA:Magomedkerimov:Sy"</t>
+  </si>
+  <si>
+    <t>Impa Kasanganay_Joshua Silveira</t>
+  </si>
+  <si>
+    <t>"MMA:Kasanganay:Silveira"</t>
+  </si>
+  <si>
+    <t>Clay Collard_Olivier Aubin-Mercier</t>
+  </si>
+  <si>
+    <t>"MMA:Aubin-Mercier:Collard"</t>
+  </si>
+  <si>
+    <t>Texas Longhorns_TexasTech Red Raiders</t>
+  </si>
+  <si>
+    <t>"NCAAF:Texas:TexasTech"</t>
+  </si>
+  <si>
+    <t>Oregon Ducks_OregonState Beavers</t>
+  </si>
+  <si>
+    <t>"NCAAF:Oregon:OregonState"</t>
+  </si>
+  <si>
+    <t>Kentucky Wildcats_Louisville Cardinals</t>
+  </si>
+  <si>
+    <t>"NCAAF:Louisville:Kentucky"</t>
+  </si>
+  <si>
+    <t>Indiana Hoosiers_Purdue Boilermakers</t>
+  </si>
+  <si>
+    <t>"NCAAF:Purdue:Indiana"</t>
+  </si>
+  <si>
+    <t>Duke Blue Devils_Pittsburgh Panthers</t>
+  </si>
+  <si>
+    <t>"NCAAF:Duke:Pittsburgh"</t>
+  </si>
+  <si>
+    <t>BallState Cardinals_Miami (OH) RedHawks</t>
+  </si>
+  <si>
+    <t>"NCAAF:Miami:BallState"</t>
+  </si>
+  <si>
+    <t>Houston Cougars_UCF Knights</t>
+  </si>
+  <si>
+    <t>"NCAAF:UCF:Houston"</t>
+  </si>
+  <si>
+    <t>UConn Huskies_UMass Minutemen</t>
+  </si>
+  <si>
+    <t>"NCAAF:UConn:UMass"</t>
+  </si>
+  <si>
+    <t>Michigan Wolverines_OhioState Buckeyes</t>
+  </si>
+  <si>
+    <t>"NCAAF:Michigan:OhioState"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Michigan-7:OhioState"</t>
+  </si>
+  <si>
+    <t>Middle Tennessee Blue Raiders_Sam HoustonState Bearkats</t>
+  </si>
+  <si>
+    <t>"NCAAF:Middle:Sam"</t>
+  </si>
+  <si>
+    <t>LSU Tigers_TexasA&amp;M Aggies</t>
+  </si>
+  <si>
+    <t>"NCAAF:LSU:TexasA&amp;M"</t>
+  </si>
+  <si>
+    <t>Syracuse Orange_WakeForest Demon Deacons</t>
+  </si>
+  <si>
+    <t>"NCAAF:Syracuse:WakeForest"</t>
+  </si>
+  <si>
+    <t>Florida Atlantic Owls_Rice Owls</t>
+  </si>
+  <si>
+    <t>"NCAAF:Rice:Florida"</t>
+  </si>
+  <si>
+    <t>NorthTexas Mean Green_UAB Blazers</t>
+  </si>
+  <si>
+    <t>"NCAAF:NorthTexas:UAB"</t>
+  </si>
+  <si>
+    <t>GeorgiaState Panthers_Old Dominion Monarchs</t>
+  </si>
+  <si>
+    <t>"NCAAF:Old:GeorgiaState"</t>
+  </si>
+  <si>
+    <t>East Carolina Pirates_Tulsa Golden Hurricane</t>
+  </si>
+  <si>
+    <t>"NCAAF:East:Tulsa"</t>
+  </si>
+  <si>
+    <t>SanJoseState Spartans_UNLV Rebels</t>
+  </si>
+  <si>
+    <t>"NCAAF:UNLV:SanJoseState"</t>
+  </si>
+  <si>
+    <t>Florida International Panthers_Western Kentucky Hilltoppers</t>
+  </si>
+  <si>
+    <t>"NCAAF:Western:Florida"</t>
+  </si>
+  <si>
+    <t>Louisiana Ragin Cajuns_UL Monroe Warhawks</t>
+  </si>
+  <si>
+    <t>"NCAAF:Louisiana:UL"</t>
+  </si>
+  <si>
+    <t>Minnesota Golden Gophers_Wisconsin Badgers</t>
+  </si>
+  <si>
+    <t>"NCAAF:Wisconsin:Minnesota"</t>
+  </si>
+  <si>
+    <t>Coastal Carolina Chanticleers_James Madison Dukes</t>
+  </si>
+  <si>
+    <t>"NCAAF:James:Coastal"</t>
+  </si>
+  <si>
+    <t>Illinois Fighting Illini_Northwestern Wildcats</t>
+  </si>
+  <si>
+    <t>"NCAAF:Illinois:Northwestern"</t>
+  </si>
+  <si>
+    <t>Maryland Terrapins_Rutgers Scarlet Knights</t>
+  </si>
+  <si>
+    <t>"NCAAF:Maryland:Rutgers"</t>
+  </si>
+  <si>
+    <t>AppalachianState Mountaineers_Georgia Southern Eagles</t>
+  </si>
+  <si>
+    <t>"NCAAF:AppalachianState:Georgia"</t>
+  </si>
+  <si>
+    <t>ArkansasState Red Wolves_Marshall Thundering Herd</t>
+  </si>
+  <si>
+    <t>"NCAAF:Marshall:ArkansasState"</t>
+  </si>
+  <si>
+    <t>Virginia Cavaliers_Virginia Tech Hokies</t>
+  </si>
+  <si>
+    <t>"NCAAF:Virginia:Virginia"</t>
+  </si>
+  <si>
+    <t>ArizonaState Sun Devils_Arizona Wildcats</t>
+  </si>
+  <si>
+    <t>"NCAAF:Arizona:ArizonaState"</t>
+  </si>
+  <si>
+    <t>JacksonvilleState Gamecocks_New MexicoState Aggies</t>
+  </si>
+  <si>
+    <t>"NCAAF:New:JacksonvilleState"</t>
+  </si>
+  <si>
+    <t>Baylor Bears_WestVirginia Mountaineers</t>
+  </si>
+  <si>
+    <t>"NCAAF:WestVirginia:Baylor"</t>
+  </si>
+  <si>
+    <t>SouthAlabama Jaguars_TexasState Bobcats</t>
+  </si>
+  <si>
+    <t>"NCAAF:SouthAlabama:TexasState"</t>
+  </si>
+  <si>
+    <t>Florida Gators_FloridaState Seminoles</t>
+  </si>
+  <si>
+    <t>"NCAAF:FloridaState:Florida"</t>
+  </si>
+  <si>
+    <t>Charlotte 49ers_SouthFlorida Bulls</t>
+  </si>
+  <si>
+    <t>"NCAAF:SouthFlorida:Charlotte"</t>
+  </si>
+  <si>
+    <t>Cincinnati Bearcats_Kansas Jayhawks</t>
+  </si>
+  <si>
+    <t>"NCAAF:Kansas:Cincinnati"</t>
+  </si>
+  <si>
+    <t>Clemson Tigers_SouthCarolina Gamecocks</t>
+  </si>
+  <si>
+    <t>"NCAAF:Clemson:SouthCarolina"</t>
+  </si>
+  <si>
+    <t>NCState Wolfpack_NorthCarolina Tar Heels</t>
+  </si>
+  <si>
+    <t>"NCAAF:NorthCarolina:NCState"</t>
+  </si>
+  <si>
+    <t>IowaState Cyclones_KansasState Wildcats</t>
+  </si>
+  <si>
+    <t>"NCAAF:KansasState:IowaState"</t>
+  </si>
+  <si>
+    <t>Nevada Wolf Pack_Wyoming Cowboys</t>
+  </si>
+  <si>
+    <t>"NCAAF:Wyoming:Nevada"</t>
+  </si>
+  <si>
+    <t>California Golden Bears_UCLA Bruins</t>
+  </si>
+  <si>
+    <t>"NCAAF:UCLA:California"</t>
+  </si>
+  <si>
+    <t>FresnoState Bulldogs_SanDiegoState Aztecs</t>
+  </si>
+  <si>
+    <t>"NCAAF:FresnoState:SanDiegoState"</t>
+  </si>
+  <si>
+    <t>ColoradoState Rams_Hawaii Rainbow Warriors</t>
+  </si>
+  <si>
+    <t>"NCAAF:ColoradoState:Hawaii"</t>
+  </si>
+  <si>
+    <t>New England Patriots_New York Giants</t>
+  </si>
+  <si>
+    <t>"NFL:Patriots:Giants"</t>
+  </si>
+  <si>
+    <t>Houston Texans_Jacksonville Jaguars</t>
+  </si>
+  <si>
+    <t>"NFL:Jaguars:Texans"</t>
+  </si>
+  <si>
+    <t>Carolina Panthers_Tennessee Titans</t>
+  </si>
+  <si>
+    <t>"NFL:Titans:Panthers"</t>
+  </si>
+  <si>
+    <t>Atlanta Falcons_New Orleans Saints</t>
+  </si>
+  <si>
+    <t>"NFL:Falcons:Saints"</t>
+  </si>
+  <si>
+    <t>Cincinnati Bengals_Pittsburgh Steelers</t>
+  </si>
+  <si>
+    <t>"NFL:Steelers:Bengals"</t>
+  </si>
+  <si>
+    <t>Indianapolis Colts_Tampa Bay Buccaneers</t>
+  </si>
+  <si>
+    <t>"NFL:Colts:Buccaneers"</t>
+  </si>
+  <si>
+    <t>Cleveland Browns_Denver Broncos</t>
+  </si>
+  <si>
+    <t>"NFL:Broncos:Browns"</t>
+  </si>
+  <si>
+    <t>Arizona Cardinals_Los Angeles Rams</t>
+  </si>
+  <si>
+    <t>"NFL:Rams:Cardinals"</t>
+  </si>
+  <si>
+    <t>Kansas City Chiefs_Las Vegas Raiders</t>
+  </si>
+  <si>
+    <t>"NFL:Chiefs:Raiders"</t>
+  </si>
+  <si>
+    <t>Buffalo Bills_Philadelphia Eagles</t>
+  </si>
+  <si>
+    <t>"NFL:Eagles:Bills"</t>
+  </si>
+  <si>
+    <t>"NFL:Eagles-7.5:Bills"</t>
+  </si>
+  <si>
+    <t>Baltimore Ravens_Los Angeles Chargers</t>
+  </si>
+  <si>
+    <t>"NFL:Ravens:Chargers"</t>
+  </si>
+  <si>
+    <t>Chicago Bears_Minnesota Vikings</t>
+  </si>
+  <si>
+    <t>"NFL:Vikings:Bears"</t>
+  </si>
+  <si>
+    <t>"MMA:Hooper:Leavitt"</t>
+  </si>
+  <si>
+    <t>"MMA:Morales:Matthews"</t>
+  </si>
+  <si>
+    <t>"MMA:Allen:Craig"</t>
+  </si>
+  <si>
+    <t>"NCAAF:WashingtonState:Colorado"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Indiana:MichiganState"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Louisville:Miami"</t>
+  </si>
+  <si>
+    <t>"NCAAF:KansasState:Kansas"</t>
+  </si>
+  <si>
+    <t>"NCAAF:WestVirginia:Cincinnati"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Arizona:Utah"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Duke:Virginia"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Clemson:NorthCarolina"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Georgia:Tennessee"</t>
+  </si>
+  <si>
+    <t>"NCAAF:USC:UCLA"</t>
+  </si>
+  <si>
+    <t>"NCAAF:TCU:Baylor"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Iowa:Illinois"</t>
+  </si>
+  <si>
+    <t>"NCAAF:California:Stanford"</t>
+  </si>
+  <si>
+    <t>"NCAAF:BoiseState:UtahState"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Missouri:Florida"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Kentucky:SouthCarolina"</t>
+  </si>
+  <si>
+    <t>"NCAAF:OregonState:Washington"</t>
+  </si>
+  <si>
+    <t>"NCAAF:Texas:IowaState"</t>
+  </si>
+  <si>
+    <t>"NFL:Lions:Bears"</t>
+  </si>
+  <si>
+    <t>"NFL:Chargers:Packers"</t>
+  </si>
+  <si>
+    <t>"NFL:Jaguars:Titans"</t>
+  </si>
+  <si>
+    <t>"NFL:Cowboys:Panthers"</t>
+  </si>
+  <si>
+    <t>"NFL:Browns:Steelers"</t>
+  </si>
+  <si>
+    <t>"NFL:Commanders:Giants"</t>
+  </si>
+  <si>
+    <t>"NFL:Texans:Cardinals"</t>
+  </si>
+  <si>
+    <t>"NFL:Seahawks:Rams"</t>
+  </si>
+  <si>
+    <t>"NFL:Bills:Jets"</t>
+  </si>
+  <si>
+    <t>"NFL:Broncos:Vikings"</t>
+  </si>
+  <si>
+    <t>"NFL:Chiefs:Eagles"</t>
+  </si>
+  <si>
+    <t>event_name</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>sched</t>
+  </si>
+  <si>
+    <t>utc</t>
+  </si>
+  <si>
+    <t>probSpread2</t>
+  </si>
+  <si>
+    <t>faveDec</t>
+  </si>
+  <si>
+    <t>"NFL:Eagles-3.5:Bills"</t>
+  </si>
+  <si>
+    <t>GeorgiaState Panthers_OldDominion Monarchs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1090,8 +1583,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1107,6 +1607,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1213,21 +1719,37 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1541,9 +2063,9 @@
   <dimension ref="B2:L272"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A262"/>
-      <selection activeCell="B3" sqref="B3:B272"/>
-      <selection pane="bottomLeft" activeCell="E281" sqref="E281"/>
+      <pane ySplit="3600" topLeftCell="A259"/>
+      <selection activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="D267" sqref="D267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,7 +2215,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(C6="FINAL",IF(J7&gt;J8,C7,C8))</f>
         <v>Toledo RocketsToledo · 32 </v>
       </c>
       <c r="C7" t="s">
@@ -8299,1915 +8821,786 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C16DECEC-AA2F-4D85-B3B6-4794695AA9AA}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="C1:T267"/>
+  <dimension ref="C1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="14" max="14" width="19" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="1"/>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" t="s">
-        <v>73</v>
-      </c>
-      <c r="O3" t="s">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E1" s="6"/>
+    </row>
+    <row r="2" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="K3" s="15">
+        <v>1700351100</v>
+      </c>
+      <c r="L3" s="16">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1700352899</v>
+      </c>
+      <c r="L4" s="18">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1700354700</v>
+      </c>
+      <c r="L5" s="18">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1700278200</v>
+      </c>
+      <c r="L6" s="18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C7" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1700326800</v>
+      </c>
+      <c r="L7" s="18">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C8" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1700326800</v>
+      </c>
+      <c r="L8" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C9" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1700330400</v>
+      </c>
+      <c r="L9" s="18">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="K10" s="19">
+        <v>1700335800</v>
+      </c>
+      <c r="L10" s="18">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1700335800</v>
+      </c>
+      <c r="L11" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="K12" s="19">
+        <v>1700337600</v>
+      </c>
+      <c r="L12" s="18">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1700339399</v>
+      </c>
+      <c r="L13" s="18">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C14" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1700339399</v>
+      </c>
+      <c r="L14" s="18">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D15" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1700339399</v>
+      </c>
+      <c r="L15" s="18">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1700339399</v>
+      </c>
+      <c r="L16" s="18">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1700339399</v>
+      </c>
+      <c r="L17" s="18">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1700350199</v>
+      </c>
+      <c r="L18" s="18">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1700352000</v>
+      </c>
+      <c r="L19" s="18">
         <v>106</v>
       </c>
-      <c r="T3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="4" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F4" s="1"/>
-      <c r="I4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>155</v>
-      </c>
-      <c r="O4" t="s">
-        <v>231</v>
-      </c>
-      <c r="T4" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="5" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F5" s="1"/>
-      <c r="I5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L5" t="s">
-        <v>232</v>
-      </c>
-      <c r="O5" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F6" s="1"/>
-      <c r="I6" t="s">
-        <v>218</v>
-      </c>
-      <c r="L6" t="s">
-        <v>184</v>
-      </c>
-      <c r="O6" t="s">
-        <v>191</v>
-      </c>
-      <c r="T6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F7" s="1"/>
-      <c r="I7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" t="s">
-        <v>136</v>
-      </c>
-      <c r="O7" t="s">
-        <v>213</v>
-      </c>
-      <c r="T7" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="8" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F8" s="1"/>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="L8" t="s">
-        <v>21</v>
-      </c>
-      <c r="O8" t="s">
-        <v>149</v>
-      </c>
-      <c r="T8" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F9" s="1"/>
-      <c r="I9" t="s">
-        <v>104</v>
-      </c>
-      <c r="L9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>54</v>
-      </c>
-      <c r="T9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F10" s="1"/>
-      <c r="I10" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O10" t="s">
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1700353800</v>
+      </c>
+      <c r="L20" s="18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D21" t="s">
+        <v>265</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1700353800</v>
+      </c>
+      <c r="L21" s="18">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1700353800</v>
+      </c>
+      <c r="L22" s="18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1700355599</v>
+      </c>
+      <c r="L23" s="18">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="K24" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L24" s="18">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" t="s">
+        <v>323</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="K25" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L25" s="18">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="K26" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L26" s="18">
         <v>222</v>
       </c>
-      <c r="T10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="11" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F11" s="1"/>
-      <c r="I11" t="s">
-        <v>198</v>
-      </c>
-      <c r="L11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>193</v>
-      </c>
-      <c r="T11" t="s">
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="K27" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L27" s="18">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="K28" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L28" s="18">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C29" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="K29" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L29" s="18">
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F12" s="1"/>
-      <c r="I12" t="s">
-        <v>147</v>
-      </c>
-      <c r="L12" t="s">
-        <v>183</v>
-      </c>
-      <c r="O12" t="s">
-        <v>165</v>
-      </c>
-      <c r="T12" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="13" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F13" s="1"/>
-      <c r="I13" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="O13" t="s">
-        <v>78</v>
-      </c>
-      <c r="T13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F14" s="1"/>
-      <c r="I14" t="s">
-        <v>201</v>
-      </c>
-      <c r="L14" t="s">
-        <v>176</v>
-      </c>
-      <c r="O14" t="s">
-        <v>135</v>
-      </c>
-      <c r="T14" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="15" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F15" s="1"/>
-      <c r="I15" t="s">
-        <v>170</v>
-      </c>
-      <c r="L15" t="s">
-        <v>195</v>
-      </c>
-      <c r="O15" t="s">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C30" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="K30" s="19">
+        <v>1700416860</v>
+      </c>
+      <c r="L30" s="18">
         <v>161</v>
       </c>
-      <c r="T15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
-      <c r="I16" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" t="s">
-        <v>88</v>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="1"/>
-      <c r="I17" t="s">
-        <v>168</v>
-      </c>
-      <c r="L17" t="s">
-        <v>173</v>
-      </c>
-      <c r="O17" t="s">
-        <v>158</v>
-      </c>
-      <c r="T17" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F18" s="1"/>
-      <c r="I18" t="s">
-        <v>121</v>
-      </c>
-      <c r="L18" t="s">
-        <v>56</v>
-      </c>
-      <c r="O18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T18" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="E19" s="6"/>
-      <c r="I19" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="I20" t="s">
-        <v>101</v>
-      </c>
-      <c r="O20" t="s">
-        <v>209</v>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C21" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="O21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C22" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="I22" t="s">
-        <v>229</v>
-      </c>
-      <c r="O22" t="s">
-        <v>126</v>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C23" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="I23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>154</v>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C24" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="I24" t="s">
-        <v>89</v>
-      </c>
-      <c r="O24" t="s">
-        <v>118</v>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C25" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
-      <c r="T25" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C26" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>111</v>
-      </c>
-      <c r="T26" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C27" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="I27" t="s">
-        <v>77</v>
-      </c>
-      <c r="T27" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C28" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>221</v>
-      </c>
-      <c r="T28" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C29" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E29" s="7" t="s">
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C31" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" t="s">
+        <v>335</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="K31" s="19">
+        <v>1700429160</v>
+      </c>
+      <c r="L31" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="K32" s="19">
+        <v>1700429160</v>
+      </c>
+      <c r="L32" s="18">
         <v>246</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="T29" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C30" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="J30" t="s">
-        <v>281</v>
-      </c>
-      <c r="T30" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>316</v>
-      </c>
-      <c r="T31" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>292</v>
-      </c>
-      <c r="T32" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>254</v>
+        <v>320</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="J33" t="s">
-        <v>286</v>
-      </c>
-      <c r="T33" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C34" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>256</v>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="K33" s="19">
+        <v>1700443260</v>
+      </c>
+      <c r="L33" s="18">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>342</v>
       </c>
       <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>319</v>
-      </c>
-      <c r="T34" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C35" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>297</v>
-      </c>
-      <c r="T35" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C36" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>299</v>
-      </c>
-      <c r="T36" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C37" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>284</v>
-      </c>
-      <c r="T37" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>304</v>
-      </c>
-      <c r="T38" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="J39" t="s">
-        <v>313</v>
-      </c>
-      <c r="T39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D40" s="14" t="s">
-        <v>267</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="J40" t="s">
-        <v>295</v>
-      </c>
-      <c r="T40" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>305</v>
-      </c>
-      <c r="T41" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C42" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>310</v>
-      </c>
-      <c r="T42" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C43" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="F43">
-        <v>1</v>
-      </c>
-      <c r="T43" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C44" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="T44" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C45" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="T45" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C46" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="T46" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C47" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D47" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="E47" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="T47" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C48" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="T48" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C49" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D49" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="F49">
-        <v>1</v>
-      </c>
-      <c r="T49" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C50" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="T50" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="C51" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="T51" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="D52" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I70" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I71" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I75" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I76" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I77" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I81" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I82" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I84" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I86" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I87" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I92" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I94" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I96" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I101" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I102" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I103" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I105" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I108" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I111" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I112" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I113" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I114" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I115" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I117" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I118" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I119" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I120" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I121" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I122" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I123" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I124" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I125" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I126" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I127" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I128" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I129" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I130" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I131" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I132" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I133" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I134" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I135" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I136" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I137" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I138" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I139" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I140" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I141" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I142" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I143" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I144" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I145" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I146" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I147" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I148" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I149" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I150" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I151" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I152" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I153" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I154" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I155" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I156" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I157" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I158" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I159" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I160" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I162" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I163" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I164" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I165" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I166" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I167" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I168" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I169" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I170" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I171" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I172" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I173" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I174" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I175" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I176" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I177" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I178" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I179" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I180" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I181" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I182" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I183" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I184" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I185" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I186" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I187" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I188" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I189" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I190" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I191" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I192" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I193" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I194" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I195" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I196" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I197" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I198" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I199" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I200" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I201" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I202" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I203" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I204" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I205" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I206" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I207" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I208" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I209" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I210" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I211" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I212" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I213" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I214" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I215" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I216" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I217" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I218" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I219" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I220" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I221" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I222" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I223" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I224" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I225" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I226" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I227" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I228" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I229" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I230" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I231" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I232" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I233" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I234" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I235" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I236" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I237" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I238" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I239" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I240" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I241" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I242" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I243" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I244" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I245" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I246" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I247" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I248" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I249" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I250" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I251" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I252" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I253" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I254" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I255" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I256" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I257" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I258" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I259" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I260" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I261" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I262" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I263" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I264" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I265" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I266" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I267" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="K34" s="20">
+        <v>1700529359</v>
+      </c>
+      <c r="L34" s="21">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:T51">
-    <sortCondition ref="T3:T51"/>
-  </sortState>
+  <conditionalFormatting sqref="F3:F34">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L34">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>335</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10218,9 +9611,9 @@
   <dimension ref="E4:M274"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="3600" topLeftCell="A22"/>
+      <pane ySplit="3600" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="E5" sqref="E5:E53"/>
-      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12827,15 +12220,43 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556FF10A-125A-4B34-B177-4D9AF18D6B6F}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="C4:E14"/>
+  <dimension ref="C3:O65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E14"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="10" max="10" width="28.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.85546875" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K3" t="s">
+        <v>271</v>
+      </c>
+      <c r="L3" t="s">
+        <v>346</v>
+      </c>
+      <c r="M3">
+        <v>1700865000</v>
+      </c>
+      <c r="N3">
+        <v>75</v>
+      </c>
+      <c r="O3">
+        <v>1.6525000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>320</v>
       </c>
@@ -12845,8 +12266,29 @@
       <c r="E4" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>351</v>
+      </c>
+      <c r="K4" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" t="s">
+        <v>352</v>
+      </c>
+      <c r="M4">
+        <v>1700870400</v>
+      </c>
+      <c r="N4">
+        <v>181</v>
+      </c>
+      <c r="O4">
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>320</v>
       </c>
@@ -12856,8 +12298,29 @@
       <c r="E5" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>359</v>
+      </c>
+      <c r="K5" t="s">
+        <v>271</v>
+      </c>
+      <c r="L5" t="s">
+        <v>360</v>
+      </c>
+      <c r="M5">
+        <v>1700875800</v>
+      </c>
+      <c r="N5">
+        <v>199</v>
+      </c>
+      <c r="O5">
+        <v>1.3725000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="1" t="s">
         <v>320</v>
       </c>
@@ -12867,8 +12330,29 @@
       <c r="E6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>361</v>
+      </c>
+      <c r="K6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L6" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6">
+        <v>1700872200</v>
+      </c>
+      <c r="N6">
+        <v>316</v>
+      </c>
+      <c r="O6">
+        <v>1.1923076923076921</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>320</v>
       </c>
@@ -12878,8 +12362,29 @@
       <c r="E7" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L7" t="s">
+        <v>364</v>
+      </c>
+      <c r="M7">
+        <v>1700875800</v>
+      </c>
+      <c r="N7">
+        <v>323</v>
+      </c>
+      <c r="O7">
+        <v>1.1823076923076921</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
         <v>320</v>
       </c>
@@ -12889,8 +12394,29 @@
       <c r="E8" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" t="s">
+        <v>234</v>
+      </c>
+      <c r="L8" t="s">
+        <v>366</v>
+      </c>
+      <c r="M8">
+        <v>1700931600</v>
+      </c>
+      <c r="N8">
+        <v>215</v>
+      </c>
+      <c r="O8">
+        <v>1.3584615384615382</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>320</v>
       </c>
@@ -12900,8 +12426,29 @@
       <c r="E9" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>367</v>
+      </c>
+      <c r="K9" t="s">
+        <v>234</v>
+      </c>
+      <c r="L9" t="s">
+        <v>368</v>
+      </c>
+      <c r="M9">
+        <v>1700931600</v>
+      </c>
+      <c r="N9">
+        <v>78</v>
+      </c>
+      <c r="O9">
+        <v>1.6723076923076925</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>320</v>
       </c>
@@ -12911,8 +12458,29 @@
       <c r="E10" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" t="s">
+        <v>378</v>
+      </c>
+      <c r="M10">
+        <v>1700931600</v>
+      </c>
+      <c r="N10">
+        <v>106</v>
+      </c>
+      <c r="O10">
+        <v>1.5961538461538463</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>320</v>
       </c>
@@ -12922,8 +12490,29 @@
       <c r="E11" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>377</v>
+      </c>
+      <c r="K11" t="s">
+        <v>234</v>
+      </c>
+      <c r="L11" t="s">
+        <v>379</v>
+      </c>
+      <c r="M11">
+        <v>1700931600</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1.5961538461538463</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>320</v>
       </c>
@@ -12933,8 +12522,29 @@
       <c r="E12" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>382</v>
+      </c>
+      <c r="K12" t="s">
+        <v>234</v>
+      </c>
+      <c r="L12" t="s">
+        <v>383</v>
+      </c>
+      <c r="M12">
+        <v>1700931600</v>
+      </c>
+      <c r="N12">
+        <v>290</v>
+      </c>
+      <c r="O12">
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>320</v>
       </c>
@@ -12944,9 +12554,30 @@
       <c r="E13" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="14" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="11" t="s">
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" t="s">
+        <v>400</v>
+      </c>
+      <c r="K13" t="s">
+        <v>234</v>
+      </c>
+      <c r="L13" t="s">
+        <v>401</v>
+      </c>
+      <c r="M13">
+        <v>1700944199</v>
+      </c>
+      <c r="N13">
+        <v>42</v>
+      </c>
+      <c r="O13">
+        <v>1.7715384615384613</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="10" t="s">
         <v>320</v>
       </c>
       <c r="D14" t="s">
@@ -12955,8 +12586,2326 @@
       <c r="E14" t="s">
         <v>342</v>
       </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>404</v>
+      </c>
+      <c r="K14" t="s">
+        <v>234</v>
+      </c>
+      <c r="L14" t="s">
+        <v>405</v>
+      </c>
+      <c r="M14">
+        <v>1700944199</v>
+      </c>
+      <c r="N14">
+        <v>167</v>
+      </c>
+      <c r="O14">
+        <v>1.4492307692307693</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" t="s">
+        <v>412</v>
+      </c>
+      <c r="K15" t="s">
+        <v>234</v>
+      </c>
+      <c r="L15" t="s">
+        <v>413</v>
+      </c>
+      <c r="M15">
+        <v>1700944199</v>
+      </c>
+      <c r="N15">
+        <v>68</v>
+      </c>
+      <c r="O15">
+        <v>1.6992307692307693</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" t="s">
+        <v>234</v>
+      </c>
+      <c r="L16" t="s">
+        <v>415</v>
+      </c>
+      <c r="M16">
+        <v>1700944199</v>
+      </c>
+      <c r="N16">
+        <v>288</v>
+      </c>
+      <c r="O16">
+        <v>1.2361538461538462</v>
+      </c>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>422</v>
+      </c>
+      <c r="K17" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" t="s">
+        <v>423</v>
+      </c>
+      <c r="M17">
+        <v>1700956800</v>
+      </c>
+      <c r="N17">
+        <v>196</v>
+      </c>
+      <c r="O17">
+        <v>1.3941666666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18" t="s">
+        <v>426</v>
+      </c>
+      <c r="K18" t="s">
+        <v>234</v>
+      </c>
+      <c r="L18" t="s">
+        <v>427</v>
+      </c>
+      <c r="M18">
+        <v>1700958600</v>
+      </c>
+      <c r="N18">
+        <v>182</v>
+      </c>
+      <c r="O18">
+        <v>1.4223076923076923</v>
+      </c>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>428</v>
+      </c>
+      <c r="K19" t="s">
+        <v>234</v>
+      </c>
+      <c r="L19" t="s">
+        <v>429</v>
+      </c>
+      <c r="M19">
+        <v>1700958600</v>
+      </c>
+      <c r="N19">
+        <v>220</v>
+      </c>
+      <c r="O19">
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>430</v>
+      </c>
+      <c r="K20" t="s">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s">
+        <v>431</v>
+      </c>
+      <c r="M20">
+        <v>1700960399</v>
+      </c>
+      <c r="N20">
+        <v>72</v>
+      </c>
+      <c r="O20">
+        <v>1.6869230769230772</v>
+      </c>
+    </row>
+    <row r="21" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" t="s">
+        <v>432</v>
+      </c>
+      <c r="K21" t="s">
+        <v>234</v>
+      </c>
+      <c r="L21" t="s">
+        <v>433</v>
+      </c>
+      <c r="M21">
+        <v>1700960399</v>
+      </c>
+      <c r="N21">
+        <v>268</v>
+      </c>
+      <c r="O21">
+        <v>1.2653846153846153</v>
+      </c>
+    </row>
+    <row r="22" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22" t="s">
+        <v>442</v>
+      </c>
+      <c r="K22" t="s">
+        <v>320</v>
+      </c>
+      <c r="L22" t="s">
+        <v>443</v>
+      </c>
+      <c r="M22">
+        <v>1701021600</v>
+      </c>
+      <c r="N22">
+        <v>110</v>
+      </c>
+      <c r="O22">
+        <v>1.5873333333333333</v>
+      </c>
+    </row>
+    <row r="23" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>444</v>
+      </c>
+      <c r="K23" t="s">
+        <v>320</v>
+      </c>
+      <c r="L23" t="s">
+        <v>445</v>
+      </c>
+      <c r="M23">
+        <v>1701021600</v>
+      </c>
+      <c r="N23">
+        <v>25</v>
+      </c>
+      <c r="O23">
+        <v>1.8271428571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>446</v>
+      </c>
+      <c r="K24" t="s">
+        <v>320</v>
+      </c>
+      <c r="L24" t="s">
+        <v>447</v>
+      </c>
+      <c r="M24">
+        <v>1701021600</v>
+      </c>
+      <c r="N24">
+        <v>130</v>
+      </c>
+      <c r="O24">
+        <v>1.5393333333333337</v>
+      </c>
+    </row>
+    <row r="25" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>448</v>
+      </c>
+      <c r="K25" t="s">
+        <v>320</v>
+      </c>
+      <c r="L25" t="s">
+        <v>449</v>
+      </c>
+      <c r="M25">
+        <v>1701021600</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1.9054545454545455</v>
+      </c>
+    </row>
+    <row r="26" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" t="s">
+        <v>450</v>
+      </c>
+      <c r="K26" t="s">
+        <v>320</v>
+      </c>
+      <c r="L26" t="s">
+        <v>451</v>
+      </c>
+      <c r="M26">
+        <v>1701021600</v>
+      </c>
+      <c r="N26">
+        <v>13</v>
+      </c>
+      <c r="O26">
+        <v>1.8628571428571428</v>
+      </c>
+    </row>
+    <row r="27" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" t="s">
+        <v>452</v>
+      </c>
+      <c r="K27" t="s">
+        <v>320</v>
+      </c>
+      <c r="L27" t="s">
+        <v>453</v>
+      </c>
+      <c r="M27">
+        <v>1701021660</v>
+      </c>
+      <c r="N27">
+        <v>59</v>
+      </c>
+      <c r="O27">
+        <v>1.7213333333333334</v>
+      </c>
+    </row>
+    <row r="28" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" t="s">
+        <v>454</v>
+      </c>
+      <c r="K28" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" t="s">
+        <v>455</v>
+      </c>
+      <c r="M28">
+        <v>1701032760</v>
+      </c>
+      <c r="N28">
+        <v>53</v>
+      </c>
+      <c r="O28">
+        <v>1.7379999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" t="s">
+        <v>456</v>
+      </c>
+      <c r="K29" t="s">
+        <v>320</v>
+      </c>
+      <c r="L29" t="s">
+        <v>457</v>
+      </c>
+      <c r="M29">
+        <v>1701032760</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>1.9061538461538463</v>
+      </c>
+    </row>
+    <row r="30" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>458</v>
+      </c>
+      <c r="K30" t="s">
+        <v>320</v>
+      </c>
+      <c r="L30" t="s">
+        <v>459</v>
+      </c>
+      <c r="M30">
+        <v>1701033899</v>
+      </c>
+      <c r="N30">
+        <v>294</v>
+      </c>
+      <c r="O30">
+        <v>1.2273333333333336</v>
+      </c>
+    </row>
+    <row r="31" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>460</v>
+      </c>
+      <c r="K31" t="s">
+        <v>320</v>
+      </c>
+      <c r="L31" t="s">
+        <v>461</v>
+      </c>
+      <c r="M31">
+        <v>1701033899</v>
+      </c>
+      <c r="N31">
+        <v>117</v>
+      </c>
+      <c r="O31">
+        <v>1.5706666666666667</v>
+      </c>
+    </row>
+    <row r="32" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>460</v>
+      </c>
+      <c r="K32" t="s">
+        <v>320</v>
+      </c>
+      <c r="L32" t="s">
+        <v>462</v>
+      </c>
+      <c r="M32">
+        <v>1701033899</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1.5706666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>463</v>
+      </c>
+      <c r="K33" t="s">
+        <v>320</v>
+      </c>
+      <c r="L33" t="s">
+        <v>464</v>
+      </c>
+      <c r="M33">
+        <v>1701048000</v>
+      </c>
+      <c r="N33">
+        <v>149</v>
+      </c>
+      <c r="O33">
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>465</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>466</v>
+      </c>
+      <c r="M34">
+        <v>1701134159</v>
+      </c>
+      <c r="N34">
+        <v>117</v>
+      </c>
+      <c r="O34">
+        <v>1.5692857142857142</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J35" t="s">
+        <v>343</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>344</v>
+      </c>
+      <c r="M35">
+        <v>1700865000</v>
+      </c>
+      <c r="N35">
+        <v>204</v>
+      </c>
+      <c r="O35">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J36" t="s">
+        <v>347</v>
+      </c>
+      <c r="K36" t="s">
+        <v>271</v>
+      </c>
+      <c r="L36" t="s">
+        <v>348</v>
+      </c>
+      <c r="M36">
+        <v>1700865000</v>
+      </c>
+      <c r="N36">
+        <v>165</v>
+      </c>
+      <c r="O36">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J37" t="s">
+        <v>349</v>
+      </c>
+      <c r="K37" t="s">
+        <v>271</v>
+      </c>
+      <c r="L37" t="s">
+        <v>350</v>
+      </c>
+      <c r="M37">
+        <v>1700866800</v>
+      </c>
+      <c r="N37">
+        <v>21</v>
+      </c>
+      <c r="O37">
+        <v>1.8066666666666666</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J38" t="s">
+        <v>353</v>
+      </c>
+      <c r="K38" t="s">
+        <v>271</v>
+      </c>
+      <c r="L38" t="s">
+        <v>354</v>
+      </c>
+      <c r="M38">
+        <v>1700873999</v>
+      </c>
+      <c r="N38">
+        <v>183</v>
+      </c>
+      <c r="O38">
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J39" t="s">
+        <v>355</v>
+      </c>
+      <c r="K39" t="s">
+        <v>271</v>
+      </c>
+      <c r="L39" t="s">
+        <v>356</v>
+      </c>
+      <c r="M39">
+        <v>1700873999</v>
+      </c>
+      <c r="N39">
+        <v>75</v>
+      </c>
+      <c r="O39">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J40" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" t="s">
+        <v>271</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40">
+        <v>1700873999</v>
+      </c>
+      <c r="N40">
+        <v>112</v>
+      </c>
+      <c r="O40">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J41" t="s">
+        <v>369</v>
+      </c>
+      <c r="K41" t="s">
+        <v>234</v>
+      </c>
+      <c r="L41" t="s">
+        <v>370</v>
+      </c>
+      <c r="M41">
+        <v>1700931600</v>
+      </c>
+      <c r="N41">
+        <v>179</v>
+      </c>
+      <c r="O41">
+        <v>1.4261538461538459</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J42" t="s">
+        <v>371</v>
+      </c>
+      <c r="K42" t="s">
+        <v>234</v>
+      </c>
+      <c r="L42" t="s">
+        <v>372</v>
+      </c>
+      <c r="M42">
+        <v>1700931600</v>
+      </c>
+      <c r="N42">
+        <v>188</v>
+      </c>
+      <c r="O42">
+        <v>1.4083333333333332</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J43" t="s">
+        <v>373</v>
+      </c>
+      <c r="K43" t="s">
+        <v>234</v>
+      </c>
+      <c r="L43" t="s">
+        <v>374</v>
+      </c>
+      <c r="M43">
+        <v>1700931600</v>
+      </c>
+      <c r="N43">
+        <v>326</v>
+      </c>
+      <c r="O43">
+        <v>1.1784615384615382</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J44" t="s">
+        <v>375</v>
+      </c>
+      <c r="K44" t="s">
+        <v>234</v>
+      </c>
+      <c r="L44" t="s">
+        <v>376</v>
+      </c>
+      <c r="M44">
+        <v>1700931600</v>
+      </c>
+      <c r="N44">
+        <v>50</v>
+      </c>
+      <c r="O44">
+        <v>1.7491666666666663</v>
+      </c>
+    </row>
+    <row r="45" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>380</v>
+      </c>
+      <c r="K45" t="s">
+        <v>234</v>
+      </c>
+      <c r="L45" t="s">
+        <v>381</v>
+      </c>
+      <c r="M45">
+        <v>1700931600</v>
+      </c>
+      <c r="N45">
+        <v>119</v>
+      </c>
+      <c r="O45">
+        <v>1.5646153846153845</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J46" t="s">
+        <v>384</v>
+      </c>
+      <c r="K46" t="s">
+        <v>234</v>
+      </c>
+      <c r="L46" t="s">
+        <v>385</v>
+      </c>
+      <c r="M46">
+        <v>1700935200</v>
+      </c>
+      <c r="N46">
+        <v>70</v>
+      </c>
+      <c r="O46">
+        <v>1.693846153846154</v>
+      </c>
+    </row>
+    <row r="47" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J47" t="s">
+        <v>386</v>
+      </c>
+      <c r="K47" t="s">
+        <v>234</v>
+      </c>
+      <c r="L47" t="s">
+        <v>387</v>
+      </c>
+      <c r="M47">
+        <v>1700935200</v>
+      </c>
+      <c r="N47">
+        <v>138</v>
+      </c>
+      <c r="O47">
+        <v>1.5192307692307689</v>
+      </c>
+    </row>
+    <row r="48" spans="9:15" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>234</v>
+      </c>
+      <c r="L48" t="s">
+        <v>389</v>
+      </c>
+      <c r="M48">
+        <v>1700938799</v>
+      </c>
+      <c r="N48">
+        <v>92</v>
+      </c>
+      <c r="O48">
+        <v>1.6346153846153846</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>234</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49">
+        <v>1700938799</v>
+      </c>
+      <c r="N49">
+        <v>72</v>
+      </c>
+      <c r="O49">
+        <v>1.6876923076923078</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J50" t="s">
+        <v>392</v>
+      </c>
+      <c r="K50" t="s">
+        <v>234</v>
+      </c>
+      <c r="L50" t="s">
+        <v>393</v>
+      </c>
+      <c r="M50">
+        <v>1700938799</v>
+      </c>
+      <c r="N50">
+        <v>89</v>
+      </c>
+      <c r="O50">
+        <v>1.639230769230769</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J51" t="s">
+        <v>394</v>
+      </c>
+      <c r="K51" t="s">
+        <v>234</v>
+      </c>
+      <c r="L51" t="s">
+        <v>395</v>
+      </c>
+      <c r="M51">
+        <v>1700942400</v>
+      </c>
+      <c r="N51">
+        <v>90</v>
+      </c>
+      <c r="O51">
+        <v>1.6369230769230769</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J52" t="s">
+        <v>396</v>
+      </c>
+      <c r="K52" t="s">
+        <v>234</v>
+      </c>
+      <c r="L52" t="s">
+        <v>397</v>
+      </c>
+      <c r="M52">
+        <v>1700942400</v>
+      </c>
+      <c r="N52">
+        <v>271</v>
+      </c>
+      <c r="O52">
+        <v>1.2615384615384615</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J53" t="s">
+        <v>398</v>
+      </c>
+      <c r="K53" t="s">
+        <v>234</v>
+      </c>
+      <c r="L53" t="s">
+        <v>399</v>
+      </c>
+      <c r="M53">
+        <v>1700942400</v>
+      </c>
+      <c r="N53">
+        <v>302</v>
+      </c>
+      <c r="O53">
+        <v>1.213846153846154</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J54" t="s">
+        <v>402</v>
+      </c>
+      <c r="K54" t="s">
+        <v>234</v>
+      </c>
+      <c r="L54" t="s">
+        <v>403</v>
+      </c>
+      <c r="M54">
+        <v>1700944199</v>
+      </c>
+      <c r="N54">
+        <v>249</v>
+      </c>
+      <c r="O54">
+        <v>1.2966666666666669</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J55" t="s">
+        <v>406</v>
+      </c>
+      <c r="K55" t="s">
+        <v>234</v>
+      </c>
+      <c r="L55" t="s">
+        <v>407</v>
+      </c>
+      <c r="M55">
+        <v>1700944199</v>
+      </c>
+      <c r="N55">
+        <v>16</v>
+      </c>
+      <c r="O55">
+        <v>1.8533333333333333</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J56" t="s">
+        <v>408</v>
+      </c>
+      <c r="K56" t="s">
+        <v>234</v>
+      </c>
+      <c r="L56" t="s">
+        <v>409</v>
+      </c>
+      <c r="M56">
+        <v>1700944199</v>
+      </c>
+      <c r="N56">
+        <v>248</v>
+      </c>
+      <c r="O56">
+        <v>1.2983333333333333</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>234</v>
+      </c>
+      <c r="L57" t="s">
+        <v>411</v>
+      </c>
+      <c r="M57">
+        <v>1700944199</v>
+      </c>
+      <c r="N57">
+        <v>46</v>
+      </c>
+      <c r="O57">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J58" t="s">
+        <v>416</v>
+      </c>
+      <c r="K58" t="s">
+        <v>234</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58">
+        <v>1700946000</v>
+      </c>
+      <c r="N58">
+        <v>29</v>
+      </c>
+      <c r="O58">
+        <v>1.8099999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" t="s">
+        <v>234</v>
+      </c>
+      <c r="L59" t="s">
+        <v>419</v>
+      </c>
+      <c r="M59">
+        <v>1700956800</v>
+      </c>
+      <c r="N59">
+        <v>248</v>
+      </c>
+      <c r="O59">
+        <v>1.2984615384615386</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>420</v>
+      </c>
+      <c r="K60" t="s">
+        <v>234</v>
+      </c>
+      <c r="L60" t="s">
+        <v>421</v>
+      </c>
+      <c r="M60">
+        <v>1700956800</v>
+      </c>
+      <c r="N60">
+        <v>178</v>
+      </c>
+      <c r="O60">
+        <v>1.4276923076923076</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J61" t="s">
+        <v>424</v>
+      </c>
+      <c r="K61" t="s">
+        <v>234</v>
+      </c>
+      <c r="L61" t="s">
+        <v>425</v>
+      </c>
+      <c r="M61">
+        <v>1700958600</v>
+      </c>
+      <c r="N61">
+        <v>174</v>
+      </c>
+      <c r="O61">
+        <v>1.4375</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J62" t="s">
+        <v>434</v>
+      </c>
+      <c r="K62" t="s">
+        <v>234</v>
+      </c>
+      <c r="L62" t="s">
+        <v>435</v>
+      </c>
+      <c r="M62">
+        <v>1700964000</v>
+      </c>
+      <c r="N62">
+        <v>288</v>
+      </c>
+      <c r="O62">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J63" t="s">
+        <v>436</v>
+      </c>
+      <c r="K63" t="s">
+        <v>234</v>
+      </c>
+      <c r="L63" t="s">
+        <v>437</v>
+      </c>
+      <c r="M63">
+        <v>1700969400</v>
+      </c>
+      <c r="N63">
+        <v>253</v>
+      </c>
+      <c r="O63">
+        <v>1.2908333333333335</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J64" t="s">
+        <v>438</v>
+      </c>
+      <c r="K64" t="s">
+        <v>234</v>
+      </c>
+      <c r="L64" t="s">
+        <v>439</v>
+      </c>
+      <c r="M64">
+        <v>1700969400</v>
+      </c>
+      <c r="N64">
+        <v>166</v>
+      </c>
+      <c r="O64">
+        <v>1.4530769230769232</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>440</v>
+      </c>
+      <c r="K65" t="s">
+        <v>234</v>
+      </c>
+      <c r="L65" t="s">
+        <v>441</v>
+      </c>
+      <c r="M65">
+        <v>1700971199</v>
+      </c>
+      <c r="N65">
+        <v>165</v>
+      </c>
+      <c r="O65">
+        <v>1.4558333333333333</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:O34">
+    <sortCondition ref="K3:K34"/>
+    <sortCondition ref="M3:M34"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D1E8B4-641B-4A32-9D47-F5B2640AEC56}">
+  <dimension ref="B2:H56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E2" t="s">
+        <v>501</v>
+      </c>
+      <c r="F2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G2" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F3">
+        <v>1700865000</v>
+      </c>
+      <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
+        <v>1.6525000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>351</v>
+      </c>
+      <c r="D4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F4">
+        <v>1700870400</v>
+      </c>
+      <c r="G4">
+        <v>181</v>
+      </c>
+      <c r="H4">
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F5">
+        <v>1700875800</v>
+      </c>
+      <c r="G5">
+        <v>199</v>
+      </c>
+      <c r="H5">
+        <v>1.3725000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6">
+        <v>1700931600</v>
+      </c>
+      <c r="G6">
+        <v>78</v>
+      </c>
+      <c r="H6">
+        <v>1.6723076923076925</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7">
+        <v>1700931600</v>
+      </c>
+      <c r="G7">
+        <v>106</v>
+      </c>
+      <c r="H7">
+        <v>1.5961538461538463</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F8">
+        <v>1700931600</v>
+      </c>
+      <c r="G8">
+        <v>119</v>
+      </c>
+      <c r="H8">
+        <v>1.5646153846153845</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>382</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9">
+        <v>1700931600</v>
+      </c>
+      <c r="G9">
+        <v>290</v>
+      </c>
+      <c r="H9">
+        <v>1.2307692307692308</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>384</v>
+      </c>
+      <c r="D10" t="s">
+        <v>234</v>
+      </c>
+      <c r="E10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10">
+        <v>1700935200</v>
+      </c>
+      <c r="G10">
+        <v>70</v>
+      </c>
+      <c r="H10">
+        <v>1.693846153846154</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>386</v>
+      </c>
+      <c r="D11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F11">
+        <v>1700935200</v>
+      </c>
+      <c r="G11">
+        <v>138</v>
+      </c>
+      <c r="H11">
+        <v>1.5192307692307689</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D12" t="s">
+        <v>234</v>
+      </c>
+      <c r="E12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F12">
+        <v>1700938799</v>
+      </c>
+      <c r="G12">
+        <v>92</v>
+      </c>
+      <c r="H12">
+        <v>1.6346153846153846</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" t="s">
+        <v>391</v>
+      </c>
+      <c r="F13">
+        <v>1700938799</v>
+      </c>
+      <c r="G13">
+        <v>72</v>
+      </c>
+      <c r="H13">
+        <v>1.6876923076923078</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>392</v>
+      </c>
+      <c r="D14" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" t="s">
+        <v>393</v>
+      </c>
+      <c r="F14">
+        <v>1700938799</v>
+      </c>
+      <c r="G14">
+        <v>89</v>
+      </c>
+      <c r="H14">
+        <v>1.639230769230769</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>394</v>
+      </c>
+      <c r="D15" t="s">
+        <v>234</v>
+      </c>
+      <c r="E15" t="s">
+        <v>395</v>
+      </c>
+      <c r="F15">
+        <v>1700942400</v>
+      </c>
+      <c r="G15">
+        <v>90</v>
+      </c>
+      <c r="H15">
+        <v>1.6369230769230769</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>396</v>
+      </c>
+      <c r="D16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E16" t="s">
+        <v>397</v>
+      </c>
+      <c r="F16">
+        <v>1700942400</v>
+      </c>
+      <c r="G16">
+        <v>271</v>
+      </c>
+      <c r="H16">
+        <v>1.2615384615384615</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>398</v>
+      </c>
+      <c r="D17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E17" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17">
+        <v>1700942400</v>
+      </c>
+      <c r="G17">
+        <v>302</v>
+      </c>
+      <c r="H17">
+        <v>1.213846153846154</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" t="s">
+        <v>234</v>
+      </c>
+      <c r="E18" t="s">
+        <v>401</v>
+      </c>
+      <c r="F18">
+        <v>1700944199</v>
+      </c>
+      <c r="G18">
+        <v>42</v>
+      </c>
+      <c r="H18">
+        <v>1.7715384615384613</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D19" t="s">
+        <v>234</v>
+      </c>
+      <c r="E19" t="s">
+        <v>403</v>
+      </c>
+      <c r="F19">
+        <v>1700944199</v>
+      </c>
+      <c r="G19">
+        <v>249</v>
+      </c>
+      <c r="H19">
+        <v>1.2966666666666669</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>442</v>
+      </c>
+      <c r="D20" t="s">
+        <v>320</v>
+      </c>
+      <c r="E20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F20">
+        <v>1701021600</v>
+      </c>
+      <c r="G20">
+        <v>110</v>
+      </c>
+      <c r="H20">
+        <v>1.5873333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E21" t="s">
+        <v>445</v>
+      </c>
+      <c r="F21">
+        <v>1701021600</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>1.8271428571428572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22" t="s">
+        <v>447</v>
+      </c>
+      <c r="F22">
+        <v>1701021600</v>
+      </c>
+      <c r="G22">
+        <v>130</v>
+      </c>
+      <c r="H22">
+        <v>1.5393333333333337</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>448</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" t="s">
+        <v>449</v>
+      </c>
+      <c r="F23">
+        <v>1701021600</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.9054545454545455</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>450</v>
+      </c>
+      <c r="D24" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" t="s">
+        <v>451</v>
+      </c>
+      <c r="F24">
+        <v>1701021600</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>1.8628571428571428</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>452</v>
+      </c>
+      <c r="D25" t="s">
+        <v>320</v>
+      </c>
+      <c r="E25" t="s">
+        <v>453</v>
+      </c>
+      <c r="F25">
+        <v>1701021660</v>
+      </c>
+      <c r="G25">
+        <v>59</v>
+      </c>
+      <c r="H25">
+        <v>1.7213333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>454</v>
+      </c>
+      <c r="D26" t="s">
+        <v>320</v>
+      </c>
+      <c r="E26" t="s">
+        <v>455</v>
+      </c>
+      <c r="F26">
+        <v>1701032760</v>
+      </c>
+      <c r="G26">
+        <v>53</v>
+      </c>
+      <c r="H26">
+        <v>1.7379999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>456</v>
+      </c>
+      <c r="D27" t="s">
+        <v>320</v>
+      </c>
+      <c r="E27" t="s">
+        <v>457</v>
+      </c>
+      <c r="F27">
+        <v>1701032760</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1.9061538461538463</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>458</v>
+      </c>
+      <c r="D28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" t="s">
+        <v>459</v>
+      </c>
+      <c r="F28">
+        <v>1701033899</v>
+      </c>
+      <c r="G28">
+        <v>294</v>
+      </c>
+      <c r="H28">
+        <v>1.2273333333333336</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" t="s">
+        <v>320</v>
+      </c>
+      <c r="E29" t="s">
+        <v>461</v>
+      </c>
+      <c r="F29">
+        <v>1701033899</v>
+      </c>
+      <c r="G29">
+        <v>117</v>
+      </c>
+      <c r="H29">
+        <v>1.5706666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>460</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" t="s">
+        <v>505</v>
+      </c>
+      <c r="F30">
+        <v>1701033899</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1.5706666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>463</v>
+      </c>
+      <c r="D31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31" t="s">
+        <v>464</v>
+      </c>
+      <c r="F31">
+        <v>1701048000</v>
+      </c>
+      <c r="G31">
+        <v>149</v>
+      </c>
+      <c r="H31">
+        <v>1.494</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" t="s">
+        <v>320</v>
+      </c>
+      <c r="E32" t="s">
+        <v>466</v>
+      </c>
+      <c r="F32">
+        <v>1701134159</v>
+      </c>
+      <c r="G32">
+        <v>117</v>
+      </c>
+      <c r="H32">
+        <v>1.5692857142857142</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>343</v>
+      </c>
+      <c r="D33" t="s">
+        <v>271</v>
+      </c>
+      <c r="E33" t="s">
+        <v>344</v>
+      </c>
+      <c r="F33">
+        <v>1700865000</v>
+      </c>
+      <c r="G33">
+        <v>204</v>
+      </c>
+      <c r="H33">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f>SUM(B3:B33)</f>
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>347</v>
+      </c>
+      <c r="D34" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" t="s">
+        <v>348</v>
+      </c>
+      <c r="F34">
+        <v>1700865000</v>
+      </c>
+      <c r="G34">
+        <v>165</v>
+      </c>
+      <c r="H34">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>349</v>
+      </c>
+      <c r="D35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E35" t="s">
+        <v>350</v>
+      </c>
+      <c r="F35">
+        <v>1700866800</v>
+      </c>
+      <c r="G35">
+        <v>21</v>
+      </c>
+      <c r="H35">
+        <v>1.8066666666666666</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" t="s">
+        <v>354</v>
+      </c>
+      <c r="F36">
+        <v>1700873999</v>
+      </c>
+      <c r="G36">
+        <v>183</v>
+      </c>
+      <c r="H36">
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>355</v>
+      </c>
+      <c r="D37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E37" t="s">
+        <v>356</v>
+      </c>
+      <c r="F37">
+        <v>1700873999</v>
+      </c>
+      <c r="G37">
+        <v>75</v>
+      </c>
+      <c r="H37">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>357</v>
+      </c>
+      <c r="D38" t="s">
+        <v>271</v>
+      </c>
+      <c r="E38" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38">
+        <v>1700873999</v>
+      </c>
+      <c r="G38">
+        <v>112</v>
+      </c>
+      <c r="H38">
+        <v>1.5649999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
+      <c r="D39" t="s">
+        <v>234</v>
+      </c>
+      <c r="E39" t="s">
+        <v>362</v>
+      </c>
+      <c r="F39">
+        <v>1700872200</v>
+      </c>
+      <c r="G39">
+        <v>316</v>
+      </c>
+      <c r="H39">
+        <v>1.1923076923076921</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>363</v>
+      </c>
+      <c r="D40" t="s">
+        <v>234</v>
+      </c>
+      <c r="E40" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40">
+        <v>1700875800</v>
+      </c>
+      <c r="G40">
+        <v>323</v>
+      </c>
+      <c r="H40">
+        <v>1.1823076923076921</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D41" t="s">
+        <v>234</v>
+      </c>
+      <c r="E41" t="s">
+        <v>366</v>
+      </c>
+      <c r="F41">
+        <v>1700931600</v>
+      </c>
+      <c r="G41">
+        <v>215</v>
+      </c>
+      <c r="H41">
+        <v>1.3584615384615382</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>369</v>
+      </c>
+      <c r="D42" t="s">
+        <v>234</v>
+      </c>
+      <c r="E42" t="s">
+        <v>370</v>
+      </c>
+      <c r="F42">
+        <v>1700931600</v>
+      </c>
+      <c r="G42">
+        <v>179</v>
+      </c>
+      <c r="H42">
+        <v>1.4261538461538459</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>371</v>
+      </c>
+      <c r="D43" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" t="s">
+        <v>372</v>
+      </c>
+      <c r="F43">
+        <v>1700931600</v>
+      </c>
+      <c r="G43">
+        <v>188</v>
+      </c>
+      <c r="H43">
+        <v>1.4083333333333332</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>373</v>
+      </c>
+      <c r="D44" t="s">
+        <v>234</v>
+      </c>
+      <c r="E44" t="s">
+        <v>374</v>
+      </c>
+      <c r="F44">
+        <v>1700931600</v>
+      </c>
+      <c r="G44">
+        <v>326</v>
+      </c>
+      <c r="H44">
+        <v>1.1784615384615382</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>375</v>
+      </c>
+      <c r="D45" t="s">
+        <v>234</v>
+      </c>
+      <c r="E45" t="s">
+        <v>376</v>
+      </c>
+      <c r="F45">
+        <v>1700931600</v>
+      </c>
+      <c r="G45">
+        <v>50</v>
+      </c>
+      <c r="H45">
+        <v>1.7491666666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" t="s">
+        <v>234</v>
+      </c>
+      <c r="E46" t="s">
+        <v>421</v>
+      </c>
+      <c r="F46">
+        <v>1700956800</v>
+      </c>
+      <c r="G46">
+        <v>178</v>
+      </c>
+      <c r="H46">
+        <v>1.4276923076923076</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>422</v>
+      </c>
+      <c r="D47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>423</v>
+      </c>
+      <c r="F47">
+        <v>1700956800</v>
+      </c>
+      <c r="G47">
+        <v>196</v>
+      </c>
+      <c r="H47">
+        <v>1.3941666666666668</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
+      <c r="D48" t="s">
+        <v>234</v>
+      </c>
+      <c r="E48" t="s">
+        <v>425</v>
+      </c>
+      <c r="F48">
+        <v>1700958600</v>
+      </c>
+      <c r="G48">
+        <v>174</v>
+      </c>
+      <c r="H48">
+        <v>1.4375</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>426</v>
+      </c>
+      <c r="D49" t="s">
+        <v>234</v>
+      </c>
+      <c r="E49" t="s">
+        <v>427</v>
+      </c>
+      <c r="F49">
+        <v>1700958600</v>
+      </c>
+      <c r="G49">
+        <v>182</v>
+      </c>
+      <c r="H49">
+        <v>1.4223076923076923</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>428</v>
+      </c>
+      <c r="D50" t="s">
+        <v>234</v>
+      </c>
+      <c r="E50" t="s">
+        <v>429</v>
+      </c>
+      <c r="F50">
+        <v>1700958600</v>
+      </c>
+      <c r="G50">
+        <v>220</v>
+      </c>
+      <c r="H50">
+        <v>1.3499999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>430</v>
+      </c>
+      <c r="D51" t="s">
+        <v>234</v>
+      </c>
+      <c r="E51" t="s">
+        <v>431</v>
+      </c>
+      <c r="F51">
+        <v>1700960399</v>
+      </c>
+      <c r="G51">
+        <v>72</v>
+      </c>
+      <c r="H51">
+        <v>1.6869230769230772</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C52" t="s">
+        <v>432</v>
+      </c>
+      <c r="D52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" t="s">
+        <v>433</v>
+      </c>
+      <c r="F52">
+        <v>1700960399</v>
+      </c>
+      <c r="G52">
+        <v>268</v>
+      </c>
+      <c r="H52">
+        <v>1.2653846153846153</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C53" t="s">
+        <v>434</v>
+      </c>
+      <c r="D53" t="s">
+        <v>234</v>
+      </c>
+      <c r="E53" t="s">
+        <v>435</v>
+      </c>
+      <c r="F53">
+        <v>1700964000</v>
+      </c>
+      <c r="G53">
+        <v>288</v>
+      </c>
+      <c r="H53">
+        <v>1.2350000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C54" t="s">
+        <v>436</v>
+      </c>
+      <c r="D54" t="s">
+        <v>234</v>
+      </c>
+      <c r="E54" t="s">
+        <v>437</v>
+      </c>
+      <c r="F54">
+        <v>1700969400</v>
+      </c>
+      <c r="G54">
+        <v>253</v>
+      </c>
+      <c r="H54">
+        <v>1.2908333333333335</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>438</v>
+      </c>
+      <c r="D55" t="s">
+        <v>234</v>
+      </c>
+      <c r="E55" t="s">
+        <v>439</v>
+      </c>
+      <c r="F55">
+        <v>1700969400</v>
+      </c>
+      <c r="G55">
+        <v>166</v>
+      </c>
+      <c r="H55">
+        <v>1.4530769230769232</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>440</v>
+      </c>
+      <c r="D56" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" t="s">
+        <v>441</v>
+      </c>
+      <c r="F56">
+        <v>1700971199</v>
+      </c>
+      <c r="G56">
+        <v>165</v>
+      </c>
+      <c r="H56">
+        <v>1.4558333333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:H56">
+    <sortCondition ref="B3:B56"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/outcomeworksheet.xlsx
+++ b/docs/outcomeworksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\asb\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FA11E2-12FE-49FB-9904-836EB4BBE9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC14227E-967A-4271-BA34-6C402400A8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14385" yWindow="420" windowWidth="21600" windowHeight="14595" activeTab="4" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
+    <workbookView xWindow="8730" yWindow="3330" windowWidth="21600" windowHeight="11295" activeTab="4" xr2:uid="{774DF417-278F-406D-A611-78E706F671D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1709,7 +1709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1734,6 +1734,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13699,10 +13700,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D1E8B4-641B-4A32-9D47-F5B2640AEC56}">
-  <dimension ref="B2:H56"/>
+  <dimension ref="B2:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13711,7 +13712,7 @@
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>499</v>
       </c>
@@ -13731,7 +13732,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -13753,8 +13754,14 @@
       <c r="H3">
         <v>1.6525000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J3" s="22">
+        <v>45223</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
@@ -13776,8 +13783,15 @@
       <c r="H4">
         <v>1.4100000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J4" s="22">
+        <f>J3+7</f>
+        <v>45230</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
@@ -13799,8 +13813,15 @@
       <c r="H5">
         <v>1.3725000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="22">
+        <f t="shared" ref="J5:J10" si="0">J4+7</f>
+        <v>45237</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>1</v>
       </c>
@@ -13822,8 +13843,15 @@
       <c r="H6">
         <v>1.6723076923076925</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J6" s="22">
+        <f t="shared" si="0"/>
+        <v>45244</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -13845,8 +13873,15 @@
       <c r="H7">
         <v>1.5961538461538463</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J7" s="22">
+        <f t="shared" si="0"/>
+        <v>45251</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>1</v>
       </c>
@@ -13868,8 +13903,12 @@
       <c r="H8">
         <v>1.5646153846153845</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J8" s="22">
+        <f t="shared" si="0"/>
+        <v>45258</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>1</v>
       </c>
@@ -13891,8 +13930,12 @@
       <c r="H9">
         <v>1.2307692307692308</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J9" s="22">
+        <f t="shared" si="0"/>
+        <v>45265</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>1</v>
       </c>
@@ -13914,8 +13957,12 @@
       <c r="H10">
         <v>1.693846153846154</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="J10" s="22">
+        <f t="shared" si="0"/>
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -13938,7 +13985,7 @@
         <v>1.5192307692307689</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>1</v>
       </c>
@@ -13961,7 +14008,7 @@
         <v>1.6346153846153846</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>1</v>
       </c>
@@ -13984,7 +14031,7 @@
         <v>1.6876923076923078</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>1</v>
       </c>
@@ -14007,7 +14054,7 @@
         <v>1.639230769230769</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>1</v>
       </c>
@@ -14029,8 +14076,11 @@
       <c r="H15">
         <v>1.6369230769230769</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1</v>
       </c>
@@ -14052,8 +14102,11 @@
       <c r="H16">
         <v>1.2615384615384615</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>1</v>
       </c>
@@ -14075,8 +14128,12 @@
       <c r="H17">
         <v>1.213846153846154</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <f>K15*52/K16</f>
+        <v>0.24266666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
@@ -14099,7 +14156,7 @@
         <v>1.7715384615384613</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>1</v>
       </c>
@@ -14122,7 +14179,7 @@
         <v>1.2966666666666669</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>1</v>
       </c>
@@ -14145,7 +14202,7 @@
         <v>1.5873333333333333</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>1</v>
       </c>
@@ -14168,7 +14225,7 @@
         <v>1.8271428571428572</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>1</v>
       </c>
@@ -14191,7 +14248,7 @@
         <v>1.5393333333333337</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>1</v>
       </c>
@@ -14214,7 +14271,7 @@
         <v>1.9054545454545455</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>1</v>
       </c>
@@ -14237,7 +14294,7 @@
         <v>1.8628571428571428</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>1</v>
       </c>
@@ -14260,7 +14317,7 @@
         <v>1.7213333333333334</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>1</v>
       </c>
@@ -14283,7 +14340,7 @@
         <v>1.7379999999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>1</v>
       </c>
@@ -14306,7 +14363,7 @@
         <v>1.9061538461538463</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>1</v>
       </c>
@@ -14329,7 +14386,7 @@
         <v>1.2273333333333336</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>1</v>
       </c>
@@ -14352,7 +14409,7 @@
         <v>1.5706666666666667</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>460</v>
       </c>
@@ -14372,7 +14429,7 @@
         <v>1.5706666666666667</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>1</v>
       </c>
@@ -14395,7 +14452,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>1</v>
       </c>
